--- a/IM_patient_list.xlsx
+++ b/IM_patient_list.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DFE76-1F21-464F-AD77-72E0FDA97C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDED97A6-B84C-5B47-A6D5-BAEAD108354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="4000" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>IM Lab. no.</t>
   </si>
@@ -72,6 +61,9 @@
     <t>NGS Batch no.</t>
   </si>
   <si>
+    <t>Singe gene Reported date</t>
+  </si>
+  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -99,6 +91,12 @@
     <t>ACMG Classification</t>
   </si>
   <si>
+    <t>Test Request</t>
+  </si>
+  <si>
+    <t>Results submitted for review and/ or LIS report ready</t>
+  </si>
+  <si>
     <t>IM506</t>
   </si>
   <si>
@@ -118,6 +116,9 @@
   </si>
   <si>
     <t>NGS for validation (added by Edmund)</t>
+  </si>
+  <si>
+    <t>Diagnostic confirmation</t>
   </si>
   <si>
     <t>All</t>
@@ -236,63 +237,63 @@
   </si>
   <si>
     <t>Y3213210</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>S2342345</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>M2342345</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CHAN TAI MAN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Dr Elaine Au</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Dr A Chan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Dr Peter Chan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HON WIN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HON MARY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LEE WING</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>S5675678</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D7897890</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D0120123</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LEE SIU MAN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TONG CANDY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IM388</t>
@@ -314,7 +315,7 @@
   </si>
   <si>
     <t>HON ALAN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IM638</t>
@@ -330,36 +331,36 @@
   </si>
   <si>
     <t>24IG001871</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LAI PO PO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Y1234567</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>M/34</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Dr KK WONG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>24IG001863</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>Type of findings</t>
+  </si>
+  <si>
     <t>DOB</t>
-  </si>
-  <si>
-    <t>Reported date</t>
   </si>
   <si>
     <t>Ethnicity</t>
@@ -372,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +395,13 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -427,6 +435,33 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -454,12 +489,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,121 +529,152 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -883,9 +958,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -893,525 +968,574 @@
   <cols>
     <col min="3" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="16" width="13.83203125" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="48"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="25">
+        <v>45418</v>
+      </c>
+      <c r="D3" s="22">
+        <v>45418</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="26">
+        <v>45468</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="14">
+        <v>43</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="34">
+        <v>45209</v>
+      </c>
+      <c r="D4" s="31">
+        <v>45209</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="35"/>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="27"/>
+      <c r="W4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="34">
+        <v>45209</v>
+      </c>
+      <c r="D5" s="31">
+        <v>45209</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="34">
+        <v>45217</v>
+      </c>
+      <c r="D6" s="34">
+        <v>45217</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="42">
+        <v>45630</v>
+      </c>
+      <c r="D7" s="42">
+        <v>45630</v>
+      </c>
+      <c r="E7" s="39">
+        <v>45714</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42">
+        <v>45630</v>
+      </c>
+      <c r="D8" s="42">
+        <v>45630</v>
+      </c>
+      <c r="E8" s="39">
+        <v>45714</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="42">
+        <v>45630</v>
+      </c>
+      <c r="D9" s="42">
+        <v>45630</v>
+      </c>
+      <c r="E9" s="39">
+        <v>45714</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="41.25" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="25">
+        <v>45594</v>
+      </c>
+      <c r="D10" s="25">
+        <v>45594</v>
+      </c>
+      <c r="E10" s="22">
+        <v>45678</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="19">
-        <v>45418</v>
-      </c>
-      <c r="D2" s="16">
-        <v>45418</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="20">
-        <v>45468</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="10">
-        <v>43</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="28">
-        <v>45209</v>
-      </c>
-      <c r="D3" s="25">
-        <v>45209</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="28">
-        <v>45209</v>
-      </c>
-      <c r="D4" s="25">
-        <v>45209</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="28">
-        <v>45217</v>
-      </c>
-      <c r="D5" s="28">
-        <v>45217</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="36">
-        <v>45630</v>
-      </c>
-      <c r="D6" s="36">
-        <v>45630</v>
-      </c>
-      <c r="E6" s="33">
-        <v>45714</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="36">
-        <v>45630</v>
-      </c>
-      <c r="D7" s="36">
-        <v>45630</v>
-      </c>
-      <c r="E7" s="33">
-        <v>45714</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="36">
-        <v>45630</v>
-      </c>
-      <c r="D8" s="36">
-        <v>45630</v>
-      </c>
-      <c r="E8" s="33">
-        <v>45714</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="19">
-        <v>45594</v>
-      </c>
-      <c r="D9" s="19">
-        <v>45594</v>
-      </c>
-      <c r="E9" s="16">
-        <v>45678</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="O10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
